--- a/Descriptores_Etapa1_ATPEduFis_ATPEduEspe/ATP Educación Especial/05_EB_PROM-18_ATP_EDUESP_Descrip_AFCP.xlsx
+++ b/Descriptores_Etapa1_ATPEduFis_ATPEduEspe/ATP Educación Especial/05_EB_PROM-18_ATP_EDUESP_Descrip_AFCP.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Work\Junio_2018\Descriptores_Etapa1_ATPEduFis_ATPEduEspe\ATP Educación Especial\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="01_E1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t xml:space="preserve">Dirección General para la Evaluación de Docentes y Directivos. </t>
   </si>
@@ -125,13 +120,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Orden de nivel cognitivo y deseablemente de contenidos </t>
-  </si>
-  <si>
     <t>El dictamen individual de cada nivel, en el apartado de retroalimentación, describe las áreas de oportunidad que el sustentante debe fortalecer, incorporando elementos del nivel posterior de forma deseable.</t>
-  </si>
-  <si>
-    <t>El contenido evaluado deben tener diferencias en algunos elementos que refieren gradualidad y progresiòn.</t>
   </si>
   <si>
     <r>
@@ -156,9 +145,6 @@
     <t xml:space="preserve">Figura: </t>
   </si>
   <si>
-    <t>Revisar que no haya términos como deficiente, dificultad, no</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -203,9 +189,6 @@
     <t>Ningún nivel o área incluye el apartado de "dictamen individual".</t>
   </si>
   <si>
-    <t xml:space="preserve">Valorar la pertinencia de ordenar los contenidos presentados en los descriptores de manera apegándose al desgloce que se presenta en la matriz de especificaciones de las distintas competencias. </t>
-  </si>
-  <si>
     <t xml:space="preserve">En ambas áreas, en el Nivel III se encuentran expresiones tales como: "saberes suficientes", "dominio suficiente y organizado", "conocimiento suficiente de...", "habildades suficientes", etc.
 En ambas áreas, en el Nivelo II se encuentran expresiones como: "dominio medianamente suficiente", "conocimiento medianamente suficiente", "habilidades medianamente suficientes", "saberes medianame suficientes", etc.
 En las dos áreas, en el Nivel I se usan expresiones como: "dominio insuficiente", "conocimiento insuficiente" "habilidades insuficientes", "saberes insuficientes", etc. </t>
@@ -230,6 +213,12 @@
   </si>
   <si>
     <t>Nomenclatura:       05_EB_PROM-18_ATP_EDUESP_Descrip_AFCP</t>
+  </si>
+  <si>
+    <t>El uso repetido de frases y calificativos poco claros, como "dominio medianamente suficiente", "herramientas o saberes insuficientes", "fortalezas y debilidades", entre otros, no permite construir una idea precisa sobre lo que los sustentantes saben o no saben hacer.</t>
+  </si>
+  <si>
+    <t>Los párrafos que conforman los descriptores de cada uno de los tres Niveles son idénticos, excepto porque se cambian los términos subjetivos empleados para señalar el grado de dominio que representa cada nivel ("Suficiente" / "Medianamente Suficiente" / "Insuficiente").</t>
   </si>
   <si>
     <r>
@@ -255,7 +244,7 @@
       <t xml:space="preserve">
 El segundo párrafo incluido en cada Nivel, es el único en hacer referencia a una especificación y no a un tema "(...)las características y los procesos de desarrollo físico, cognoscitivo, lingüístico y afectivo social de los alumnos que presentan discapacidad y/o aptitudes sobresalientes (...)".
 En ninguno de los Niveles se incluye información acerca del tema de la Atención a factores de riesgo (sobre la prevensión de la deserción escolar), asociado al Subárea 
-En ninguno de los Niveles se incluye información  respecto del tema de las Prácticas docentes (tipos de enriquecimiento o estrategias de intervención específica) asociadas al Subárea de Conocimiento del plan y programas de estudio.
+En ninguno de los Niveles se incluye información  respecto del tema de las Prácticas docentes (tipos de enriquecimiento, estrategias de intervención específica o estrategias de solución) asociadas al Subárea de Conocimiento del plan y programas de estudio.
 </t>
     </r>
     <r>
@@ -274,24 +263,37 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-En el párrafo cuarto incluido en todos los niveles se habla de los procesos evaluativos como medios para conocer los avances y difiicultades que han tenido los alumnos; sin embargo, cuando en la matriz de especificaciones se hace referencia a los procesos evaluativos, se les aborda en un sentido distinto: como medios para ubicar aspectos a mejorar de la práctica docente y del servicio escolar.</t>
+En el párrafo cuarto incluido en todos los niveles se habla de los procesos evaluativos como medios para conocer los avances y difiicultades que han tenido los alumnos; sin embargo, cuando en la matriz de especificaciones se hace referencia a los procesos evaluativos, se les aborda en un sentido distinto: como medios para ubicar aspectos a mejorar de la práctica docente y del servicio escolar.
+En ninguno de los Niveles se incluye información  respecto del tema de las Situaciones de aprendizaje (ajustes o aceleraciòn curricular como una forma de atender a alumnos con discapacidad intelectual o aptitud sobresaliente, respectivamente) asociadas al Subárea de Acompañamiento en la enseñanza.</t>
     </r>
   </si>
   <si>
-    <t>El uso repetido de frases y calificativos poco claros, como "dominio medianamente suficiente", "herramientas o saberes insuficientes", "fortalezas y debilidades", entre otros, no permite construir una idea precisa sobre lo que los sustentantes saben o no saben hacer.</t>
-  </si>
-  <si>
-    <t>Los párrafos que conforman los descriptores de cada uno de los tres Niveles son idénticos, excepto porque se cambian los términos subjetivos empleados para señalar el grado de dominio que representa cada nivel ("Suficiente" / "Medianamente Suficiente" / "Insuficiente").</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debido a que la redacción de los párrafos contenidos en los distintos Niveles que representan el dominio en cada una de las dos áreas a evaluar es idéntico, salvo por el calificativo empleado al inicio de cada uno para señalar el grado de dominio del sustentante ("suficiente", "medianamente suficiente" o "insuficiente"), se pierde claridad en la gradualidad del manejo de ciertas habilidades y competencias.
-Por ejemplo, en el Pàrrafo 2 del Nivel I del àrea de Dominio Pedagògico se deja el mismo enunciado contenido en los Niveles I y II: "De igual forma, reconoce el papel que juegan en ello las condiciones del entorno familiar, cultural y social del alumno", sin hacer una distinciòn en el grado de dominio que tendrìa un sustentante ubicado en este Nivel. </t>
+    <t xml:space="preserve">Valorar la pertinencia de organizar los descriptores con apego al òrden en que se desglozan cada una de las subáreas, con sus respectivos temas, que conforman las dos áreas a evaluar de acuerdo con la matriz de especificaciones. En este mismo sentido, se sugiere que los contenidos que se recuperen en los descriptores sean claros en cuanto a la gradualidad con que éstos son dominados por los sustentantes de cada Nivel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer una distinciòn entre los contenidos en los que el sustentante ha demostrado tener un cierto grado de dominio, de acuerdo con el Nivel que le fue asignado, y los contenidos que requiere dominar para poder avanzar al siguiente nivel. </t>
+  </si>
+  <si>
+    <t>Valorar la pertinencia de utilizar tèrminos que permitan identificar con mayor claridad què contenidos de la matriz de especificaciones, y en què grado, son los que domina el sustentante de acuerdo con el Nivel asignado, diferenciàndolos de aquellos que le hace falta dominar para avanzar al siguiente nivel.</t>
+  </si>
+  <si>
+    <t>Procurar que los descriptores sean homogèneos en su redacciòn, de manera que sea claro que se está haciendo referencia a lo que el Nivel asignado dice sobre el dominio que el sustentante tiene de las habilidades y capacidades comprendidas en la estructura.</t>
+  </si>
+  <si>
+    <t>Valorar la pertinencia de utilizar tèrminos que permitan identificar con claridad el dominio que los sustentantes de cada nivel tienen en las Subàreas y Temas comprendidas en la estructura.</t>
+  </si>
+  <si>
+    <t>Revisar la redacción de los párrafos contenidos en los descriptores de cada nivel para que la gradualidad en el dominio de los contenidos del marco de especificaciones entre los distintos Niveles se refleje con claridad en cada uno de los elementos mencionados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los párrafos contenidos en los distintos Niveles de cada una de las dos áreas a evaluar son idénticos. La única diferencia es que al inicio de cada párrafo, se empea un calificativo distinto para señalar el grado de dominio del sustentante ("suficiente", "medianamente suficiente" o "insuficiente"). 
+Debido a que los ajustes para señalar la gradualidad en el dominio no se extienden a lo largo de todo el párrafo, se termina encontrando una misma habilidad en los diferentes Niveles, sin que se haga explícita ninguna diferencia en términos de su dominio. Por ejemplo, en el Pàrrafo 2 del Nivel I del àrea de Dominio Pedagògico se encuentra el mismo enunciado que en los Niveles II y III: "De igual forma, reconoce el papel que juegan en ello las condiciones del entorno familiar, cultural y social del alumno", perdiendo el sentido de la gradualidad. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -751,19 +753,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -817,7 +806,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -904,6 +893,87 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,15 +983,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -943,86 +1004,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título" xfId="1" builtinId="15"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,7 +1118,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1167,7 +1153,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1344,7 +1330,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1357,8 +1343,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1375,100 +1361,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="A3" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="52" t="s">
+      <c r="A4" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
@@ -1486,23 +1472,23 @@
       <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
@@ -1513,16 +1499,16 @@
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
@@ -1532,15 +1518,15 @@
         <v>10</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28">
@@ -1551,46 +1537,48 @@
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+        <v>44</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28">
         <v>4</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
@@ -1601,14 +1589,16 @@
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
@@ -1618,13 +1608,17 @@
         <v>13</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="E17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
@@ -1633,14 +1627,14 @@
       <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
@@ -1649,26 +1643,26 @@
       <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="22"/>
-      <c r="E19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
@@ -1677,16 +1671,16 @@
       <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="15"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>10</v>
       </c>
@@ -1695,16 +1689,18 @@
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="1:8" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>11</v>
       </c>
@@ -1713,14 +1709,16 @@
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="63"/>
+        <v>40</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
@@ -1736,17 +1734,17 @@
     </row>
     <row r="25" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>22</v>
@@ -1755,7 +1753,7 @@
     <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1769,12 +1767,12 @@
     <row r="27" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1792,6 +1790,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="D4:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F23:H23"/>
@@ -1803,20 +1815,6 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="D4:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" fitToHeight="0" orientation="portrait" r:id="rId1"/>
